--- a/excel_params/1.6_V2av.xlsx
+++ b/excel_params/1.6_V2av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionIII_double_peak\region_III_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2A127-FE3F-425E-ACDF-42DBBE7BB40B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B53E44-F0CB-4717-A456-1E9EF1D39EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="8325" xr2:uid="{CBC3BBED-A857-46AC-A7D7-071136CA24BB}"/>
+    <workbookView xWindow="0" yWindow="1875" windowWidth="19785" windowHeight="7590" xr2:uid="{6A15CE69-30C6-499E-8247-B29292811705}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E856503C-C3E9-48E1-B242-426A66BBA47F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6944D32E-1AB6-472E-946F-4C7DC69A628F}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -453,7 +453,7 @@
         <v>10697826702.728399</v>
       </c>
       <c r="D3">
-        <v>7.9009808465897044E-2</v>
+        <v>0.77589048018482665</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,7 +467,7 @@
         <v>10016659227.763512</v>
       </c>
       <c r="D4">
-        <v>7.4164744402518287E-2</v>
+        <v>0.74919177745377297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -481,7 +481,7 @@
         <v>17110369841.797117</v>
       </c>
       <c r="D5">
-        <v>8.4892816266212992E-2</v>
+        <v>0.68313437858752857</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -495,7 +495,7 @@
         <v>10598954421.831894</v>
       </c>
       <c r="D6">
-        <v>7.1796392285928545E-2</v>
+        <v>0.76498735316965871</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -509,7 +509,7 @@
         <v>11173001625.619741</v>
       </c>
       <c r="D7">
-        <v>7.0382282553879266E-2</v>
+        <v>0.77777071642704454</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>10937434665.997824</v>
       </c>
       <c r="D8">
-        <v>7.1417496277318776E-2</v>
+        <v>0.77135680848436516</v>
       </c>
     </row>
   </sheetData>
